--- a/Excel/Monster.xlsx
+++ b/Excel/Monster.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,26 @@
   </si>
   <si>
     <t>ui/sprites/monsters/wangchuantongzi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能信息,技能Id_概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_1;30_1;74_0.2;31_0.2;34_0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16_1;65_1;10_0.2;36_0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,19 +450,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="47.5546875" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +476,11 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -469,8 +493,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -483,8 +510,11 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -497,8 +527,11 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -510,6 +543,9 @@
       </c>
       <c r="D5" t="s">
         <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
